--- a/xlsx/美国奴隶制度_intext.xlsx
+++ b/xlsx/美国奴隶制度_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>美国奴隶制度</t>
   </si>
@@ -29,7 +29,7 @@
     <t>奴隶制度</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国奴隶制度</t>
+    <t>政策_政策_美国_美国奴隶制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chukri_System</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>毛里塔尼亞奴隸制度</t>
+    <t>毛里塔尼亚奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%89%80</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>性奴隸</t>
+    <t>性奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E6%B1%97%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>血汗工廠</t>
+    <t>血汗工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>阿拉伯奴隸貿易</t>
+    <t>阿拉伯奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E9%87%8C%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩卡里巴</t>
+    <t>萨卡里巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9C%A8%E7%95%99%E5%85%8B</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%83%95</t>
   </si>
   <si>
-    <t>世僕</t>
+    <t>世仆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E5%A9%A2</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4%E5%88%B6</t>
   </si>
   <si>
-    <t>農奴制</t>
+    <t>农奴制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%88%B9</t>
   </si>
   <si>
-    <t>奴隸船</t>
+    <t>奴隶船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%A5%B4%E9%9A%B6%E8%B4%B8%E6%98%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E5%8A%B3%E5%B7%A5</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A3%AE-%E8%BF%AA%E5%85%8B%E6%A3%AE%E7%B7%9A</t>
   </si>
   <si>
-    <t>梅森-迪克森線</t>
+    <t>梅森-迪克森线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC13%E6%A2%9D%E4%BF%AE%E6%AD%A3%E8%AD%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第13條修正議案</t>
+    <t>美国宪法第13条修正议案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B%E6%B9%BE</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%B2%A1%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞內岡比亞</t>
+    <t>塞内冈比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%8B%89%E5%B0%BC%E4%BA%BA</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
+    <t>罗德岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%A4%A7%E8%A6%BA%E9%86%92</t>
   </si>
   <si>
-    <t>第一次大覺醒</t>
+    <t>第一次大觉醒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%AE%89%E6%99%AE%E9%A0%93%E7%B8%A3_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>南安普頓縣 (維吉尼亞州)</t>
+    <t>南安普顿县 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -665,13 +665,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E8%81%94%E7%9B%9F%E5%9B%BD</t>
   </si>
   <si>
-    <t>美利坚联盟国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>北軍</t>
+    <t>北军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97%E5%A0%A1</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%A5%B4%E9%9A%B8%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>解放奴隸宣言</t>
+    <t>解放奴隶宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E6%9D%A1%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -713,9 +710,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%A5%B4%E9%9A%B6%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>解放奴隶宣言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%A7%86%E5%8F%94%E5%8F%94%E7%9A%84%E5%B0%8F%E5%B1%8B</t>
   </si>
   <si>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/W%C2%B7E%C2%B7B%C2%B7%E6%9D%9C%E6%B3%A2%E4%BE%9D%E6%96%AF</t>
@@ -761,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E4%BC%8A%E5%A3%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>喬治·伊士曼</t>
+    <t>乔治·伊士曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%BE%85%E5%82%91%E6%96%AF</t>
   </si>
   <si>
-    <t>亨利·羅傑斯</t>
+    <t>亨利·罗杰斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E5%8D%A1%E5%86%85%E5%9F%BA</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>切羅基人</t>
+    <t>切罗基人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E5%8C%96%E4%BA%94%E9%83%A8%E6%97%8F</t>
@@ -4470,7 +4464,7 @@
         <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4496,10 +4490,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4525,10 +4519,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4554,10 +4548,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4583,10 +4577,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4612,10 +4606,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4641,10 +4635,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4670,10 +4664,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4699,10 +4693,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -4728,10 +4722,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4757,10 +4751,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F120" t="s">
         <v>225</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>13</v>
@@ -4786,10 +4780,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4815,10 +4809,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4844,10 +4838,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4873,10 +4867,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -4902,10 +4896,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4931,10 +4925,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4960,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4989,10 +4983,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5018,10 +5012,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5047,10 +5041,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5076,10 +5070,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5105,10 +5099,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5134,10 +5128,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5163,10 +5157,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5192,10 +5186,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5221,10 +5215,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5250,10 +5244,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5279,10 +5273,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5308,10 +5302,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5337,10 +5331,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>11</v>
@@ -5366,10 +5360,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5395,10 +5389,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5424,10 +5418,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -5453,10 +5447,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5482,10 +5476,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5511,10 +5505,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5540,10 +5534,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5569,10 +5563,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5598,10 +5592,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5627,10 +5621,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>5</v>
@@ -5656,10 +5650,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5685,10 +5679,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>8</v>
@@ -5714,10 +5708,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5743,10 +5737,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5772,10 +5766,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5801,10 +5795,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>7</v>
@@ -5830,10 +5824,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>303</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
